--- a/simulation_data/two_step_algorithm/2s_error_level_14_percent_water_99.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_14_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>97.07503543351555</v>
+        <v>92.49006414293245</v>
       </c>
       <c r="D2" t="n">
-        <v>35.62152416464603</v>
+        <v>32.41650412039025</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.22308016569639</v>
+        <v>91.34706483711931</v>
       </c>
       <c r="D3" t="n">
-        <v>38.71688308603372</v>
+        <v>36.14110377420125</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.7702664090957</v>
+        <v>90.62418697021587</v>
       </c>
       <c r="D4" t="n">
-        <v>41.33682654785083</v>
+        <v>35.58853415726587</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>85.68454364285292</v>
+        <v>93.69018581764119</v>
       </c>
       <c r="D5" t="n">
-        <v>41.08632004901686</v>
+        <v>30.67731855754873</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>89.43262512807678</v>
+        <v>88.56646778281825</v>
       </c>
       <c r="D6" t="n">
-        <v>44.27356685835019</v>
+        <v>33.38427835147821</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>86.1133319957881</v>
+        <v>87.23550472574665</v>
       </c>
       <c r="D7" t="n">
-        <v>38.99615954947271</v>
+        <v>34.43345846619633</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>85.50449123221073</v>
+        <v>83.90545632194508</v>
       </c>
       <c r="D8" t="n">
-        <v>30.9949506529327</v>
+        <v>33.05466445626548</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.78345777578474</v>
+        <v>86.26685252740067</v>
       </c>
       <c r="D9" t="n">
-        <v>41.88142044121392</v>
+        <v>39.4200210290477</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.95890196036754</v>
+        <v>85.96138998431981</v>
       </c>
       <c r="D10" t="n">
-        <v>37.72443643552098</v>
+        <v>40.05612648271796</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>87.70404405490035</v>
+        <v>80.87106442869798</v>
       </c>
       <c r="D11" t="n">
-        <v>37.11932435720846</v>
+        <v>33.75161891520892</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>77.35055318828687</v>
+        <v>78.18783014892151</v>
       </c>
       <c r="D12" t="n">
-        <v>41.82737394801466</v>
+        <v>36.86399187967727</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>84.23841356500927</v>
+        <v>73.92398197078479</v>
       </c>
       <c r="D13" t="n">
-        <v>39.98621814932893</v>
+        <v>38.02642002746819</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>81.06360305567947</v>
+        <v>80.14273094843807</v>
       </c>
       <c r="D14" t="n">
-        <v>39.48254980661997</v>
+        <v>38.61016667913555</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>74.23798908504745</v>
+        <v>82.48271832560886</v>
       </c>
       <c r="D15" t="n">
-        <v>36.64225752448952</v>
+        <v>36.76190802397088</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>82.33223200409117</v>
+        <v>78.07874166120783</v>
       </c>
       <c r="D16" t="n">
-        <v>39.98126705106253</v>
+        <v>34.49913448848566</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>72.69936341348598</v>
+        <v>74.41933641345624</v>
       </c>
       <c r="D17" t="n">
-        <v>38.57627949533981</v>
+        <v>34.93747419121566</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.58017110170965</v>
+        <v>69.8657979468769</v>
       </c>
       <c r="D18" t="n">
-        <v>34.20456148235799</v>
+        <v>39.03901574082257</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>75.04765067107093</v>
+        <v>68.72452919832655</v>
       </c>
       <c r="D19" t="n">
-        <v>39.42383592026066</v>
+        <v>32.75472237902937</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.16776075355023</v>
+        <v>71.70728241820983</v>
       </c>
       <c r="D20" t="n">
-        <v>32.9554587464953</v>
+        <v>43.6441148206228</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>77.44409065068342</v>
+        <v>74.0414392905794</v>
       </c>
       <c r="D21" t="n">
-        <v>38.47725740471011</v>
+        <v>36.10002011884355</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>76.65447395471166</v>
+        <v>72.91330749743872</v>
       </c>
       <c r="D22" t="n">
-        <v>41.86506478791899</v>
+        <v>33.75103543935707</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.30214562542497</v>
+        <v>66.13308217133981</v>
       </c>
       <c r="D23" t="n">
-        <v>38.37187156007938</v>
+        <v>33.62199183035682</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>74.7915693234287</v>
+        <v>65.83435860971279</v>
       </c>
       <c r="D24" t="n">
-        <v>33.29190149499316</v>
+        <v>36.54370164881713</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>74.97535220839214</v>
+        <v>65.63165570168066</v>
       </c>
       <c r="D25" t="n">
-        <v>36.39938375168829</v>
+        <v>37.32914289272301</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.88955679594471</v>
+        <v>63.77757889108265</v>
       </c>
       <c r="D26" t="n">
-        <v>36.22134129460436</v>
+        <v>39.17284770179766</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.18351663095676</v>
+        <v>68.45610481805471</v>
       </c>
       <c r="D27" t="n">
-        <v>36.98137605944616</v>
+        <v>42.96453999618758</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>73.36756152597785</v>
+        <v>65.905270060595</v>
       </c>
       <c r="D28" t="n">
-        <v>37.23818076691697</v>
+        <v>34.41633081425636</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>66.0016938028738</v>
+        <v>64.15280037614825</v>
       </c>
       <c r="D29" t="n">
-        <v>38.35515618553271</v>
+        <v>37.99924541322437</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>66.34389883047631</v>
+        <v>66.15499876028997</v>
       </c>
       <c r="D30" t="n">
-        <v>36.06367997766398</v>
+        <v>37.24368698814685</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>67.49381975379988</v>
+        <v>57.78686853544084</v>
       </c>
       <c r="D31" t="n">
-        <v>35.87724776921288</v>
+        <v>32.26057480349135</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.19679736300168</v>
+        <v>62.09438999980839</v>
       </c>
       <c r="D32" t="n">
-        <v>37.0138825050707</v>
+        <v>40.07198994238567</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>67.0451788456193</v>
+        <v>60.04033408538064</v>
       </c>
       <c r="D33" t="n">
-        <v>35.83324154526323</v>
+        <v>40.57403593091135</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.98429425875747</v>
+        <v>51.93398092191097</v>
       </c>
       <c r="D34" t="n">
-        <v>44.32299941652944</v>
+        <v>38.12695871053108</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>60.52653331264131</v>
+        <v>54.44700946118821</v>
       </c>
       <c r="D35" t="n">
-        <v>39.01095091254711</v>
+        <v>37.66556674921355</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.96877647590018</v>
+        <v>52.43444095208925</v>
       </c>
       <c r="D36" t="n">
-        <v>38.42151080693014</v>
+        <v>40.00683546770896</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>51.81059719637986</v>
+        <v>56.97914802002889</v>
       </c>
       <c r="D37" t="n">
-        <v>43.12167470273081</v>
+        <v>37.25535400002998</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>51.09226579819593</v>
+        <v>56.60288318532018</v>
       </c>
       <c r="D38" t="n">
-        <v>39.35100017606376</v>
+        <v>34.86628197164951</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>50.38428479466306</v>
+        <v>52.9249676730475</v>
       </c>
       <c r="D39" t="n">
-        <v>39.4344247024404</v>
+        <v>34.63235960810392</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>45.42555976487753</v>
+        <v>49.36746539863235</v>
       </c>
       <c r="D40" t="n">
-        <v>40.19091236573313</v>
+        <v>34.92879521132623</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.69068520617127</v>
+        <v>51.10956844360248</v>
       </c>
       <c r="D41" t="n">
-        <v>37.97483786494317</v>
+        <v>35.98181832626879</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>48.02469171929403</v>
+        <v>44.90366843428495</v>
       </c>
       <c r="D42" t="n">
-        <v>42.15042492723403</v>
+        <v>38.20318586401673</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>45.04400660895224</v>
+        <v>51.38337722576099</v>
       </c>
       <c r="D43" t="n">
-        <v>31.76727242865342</v>
+        <v>33.83991467463392</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>46.14039121868884</v>
+        <v>49.60875387662971</v>
       </c>
       <c r="D44" t="n">
-        <v>37.74782013737773</v>
+        <v>31.02371006218435</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.90530832122334</v>
+        <v>49.59702936652258</v>
       </c>
       <c r="D45" t="n">
-        <v>39.89423003276044</v>
+        <v>34.20976267824874</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.70870856602441</v>
+        <v>54.72761922538711</v>
       </c>
       <c r="D46" t="n">
-        <v>39.59880788492064</v>
+        <v>41.26009813886763</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.84309021272053</v>
+        <v>46.72037625512758</v>
       </c>
       <c r="D47" t="n">
-        <v>36.37837799959063</v>
+        <v>36.93944920687314</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>42.78190983889028</v>
+        <v>36.38034532925786</v>
       </c>
       <c r="D48" t="n">
-        <v>35.49120928837286</v>
+        <v>36.23155179728874</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>45.95257538420401</v>
+        <v>42.94142065479276</v>
       </c>
       <c r="D49" t="n">
-        <v>38.48267834167093</v>
+        <v>32.90590036526041</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>44.44240698452322</v>
+        <v>42.35484727747362</v>
       </c>
       <c r="D50" t="n">
-        <v>36.93948114954347</v>
+        <v>42.30789411465953</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>39.85038828701349</v>
+        <v>42.45428398753895</v>
       </c>
       <c r="D51" t="n">
-        <v>37.26529360579898</v>
+        <v>35.12127761629784</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>50.41519423538038</v>
+        <v>32.91352731961216</v>
       </c>
       <c r="D52" t="n">
-        <v>34.60631959039208</v>
+        <v>35.62795783421128</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>33.70295401377101</v>
+        <v>35.37821527648764</v>
       </c>
       <c r="D53" t="n">
-        <v>35.67358368358599</v>
+        <v>32.36635776920824</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.57705920472434</v>
+        <v>47.00879593331621</v>
       </c>
       <c r="D54" t="n">
-        <v>39.87304830576219</v>
+        <v>35.11275924562313</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>39.39851190867544</v>
+        <v>30.38270845536174</v>
       </c>
       <c r="D55" t="n">
-        <v>34.96837097188275</v>
+        <v>38.07826365697468</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>31.63806882584874</v>
+        <v>33.94531070408468</v>
       </c>
       <c r="D56" t="n">
-        <v>33.78220177851804</v>
+        <v>34.90163702499054</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>33.43298788343598</v>
+        <v>24.88496946546614</v>
       </c>
       <c r="D57" t="n">
-        <v>33.28209741905248</v>
+        <v>33.54929741625426</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>31.9889848909392</v>
+        <v>32.51791950426281</v>
       </c>
       <c r="D58" t="n">
-        <v>39.96141475394955</v>
+        <v>34.01112530154933</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>28.11376839392102</v>
+        <v>32.96755046780263</v>
       </c>
       <c r="D59" t="n">
-        <v>34.85149936518339</v>
+        <v>35.9271651525095</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>35.62908262795914</v>
+        <v>30.49676477486737</v>
       </c>
       <c r="D60" t="n">
-        <v>42.88465009122363</v>
+        <v>38.38888647272782</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>26.51878035242977</v>
+        <v>31.5377852282969</v>
       </c>
       <c r="D61" t="n">
-        <v>35.88907753036045</v>
+        <v>37.26431261773806</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>28.35482455395199</v>
+        <v>32.88819329914072</v>
       </c>
       <c r="D62" t="n">
-        <v>34.62881953437999</v>
+        <v>33.65487413789197</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>26.04468369615402</v>
+        <v>27.06158856042956</v>
       </c>
       <c r="D63" t="n">
-        <v>38.38503987255599</v>
+        <v>35.34872674710515</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>26.27656963287473</v>
+        <v>32.73187156616518</v>
       </c>
       <c r="D64" t="n">
-        <v>32.96348786512569</v>
+        <v>31.38787501075833</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>23.66765316713073</v>
+        <v>30.60657820741677</v>
       </c>
       <c r="D65" t="n">
-        <v>33.33277379465521</v>
+        <v>37.35195743136022</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>28.80558717356542</v>
+        <v>20.77255308832975</v>
       </c>
       <c r="D66" t="n">
-        <v>33.45641038767799</v>
+        <v>33.3196825148224</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>32.89705727981968</v>
+        <v>19.24918769978799</v>
       </c>
       <c r="D67" t="n">
-        <v>36.23993143354839</v>
+        <v>35.82282538140503</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>26.22161864463892</v>
+        <v>24.54185065211498</v>
       </c>
       <c r="D68" t="n">
-        <v>38.53155172417879</v>
+        <v>33.83414358696368</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.56057135122179</v>
+        <v>22.96077354687115</v>
       </c>
       <c r="D69" t="n">
-        <v>34.60048576446605</v>
+        <v>35.06274591250806</v>
       </c>
     </row>
   </sheetData>
